--- a/data_entry/industrious_elephant_2023/comparison_logic_qaqc/no_comparisons.xlsx
+++ b/data_entry/industrious_elephant_2023/comparison_logic_qaqc/no_comparisons.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cgiar-my.sharepoint.com/personal/n_joshi_cgiar_org/Documents/Git/ERA_dev/data_entry/industrious_elephant_2023/comparison_logic_qaqc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{24C72489-622D-446B-9423-045BB3DE457C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9C089A72-2F2C-4DB1-97D4-C826FA820771}"/>
+  <xr:revisionPtr revIDLastSave="20" documentId="8_{24C72489-622D-446B-9423-045BB3DE457C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D1753826-1ED2-4BF7-BB20-FD8C8799BED7}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="750" windowWidth="29040" windowHeight="15720" xr2:uid="{A3B39DB1-9D82-45C0-A61C-9BFF0EE3941C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{A3B39DB1-9D82-45C0-A61C-9BFF0EE3941C}"/>
   </bookViews>
   <sheets>
     <sheet name="no_comparisons" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">no_comparisons!$A$1:$I$44</definedName>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="95">
   <si>
     <t>B.Code</t>
   </si>
@@ -310,6 +311,18 @@
   </si>
   <si>
     <t>ps?</t>
+  </si>
+  <si>
+    <t>such a simple paper</t>
+  </si>
+  <si>
+    <t>additional fert- 20P VS 10 N + 20P</t>
+  </si>
+  <si>
+    <t>both rotations. Different tillage</t>
+  </si>
+  <si>
+    <t>all intercrops with varying residues</t>
   </si>
 </sst>
 </file>
@@ -452,7 +465,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -630,6 +643,18 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -793,8 +818,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1172,8 +1199,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DE9AA7D-BCD6-498E-812F-3475D3F4F314}">
   <dimension ref="A1:L44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2161,4 +2188,625 @@
   <autoFilter ref="A1:I44" xr:uid="{2DE9AA7D-BCD6-498E-812F-3475D3F4F314}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DBCB4FB-087E-4752-8553-F38B7CB7163F}">
+  <dimension ref="A1:K26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="8" max="8" width="66.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
+        <v>74</v>
+      </c>
+      <c r="H4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" t="b">
+        <v>1</v>
+      </c>
+      <c r="G8" t="s">
+        <v>74</v>
+      </c>
+      <c r="H8" t="s">
+        <v>32</v>
+      </c>
+      <c r="I8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H9" t="s">
+        <v>34</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H10" t="s">
+        <v>37</v>
+      </c>
+      <c r="I10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" t="b">
+        <v>0</v>
+      </c>
+      <c r="H11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="b">
+        <v>0</v>
+      </c>
+      <c r="H12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="b">
+        <v>1</v>
+      </c>
+      <c r="G13" t="s">
+        <v>74</v>
+      </c>
+      <c r="H13" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H14" t="s">
+        <v>34</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" t="b">
+        <v>0</v>
+      </c>
+      <c r="H16" t="s">
+        <v>51</v>
+      </c>
+      <c r="I16" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" t="b">
+        <v>0</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" t="b">
+        <v>0</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" t="b">
+        <v>0</v>
+      </c>
+      <c r="H19" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" t="b">
+        <v>0</v>
+      </c>
+      <c r="H20" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>64</v>
+      </c>
+      <c r="B21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21" t="b">
+        <v>1</v>
+      </c>
+      <c r="G21" t="s">
+        <v>74</v>
+      </c>
+      <c r="H21" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>65</v>
+      </c>
+      <c r="C22" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" t="s">
+        <v>12</v>
+      </c>
+      <c r="F22" t="b">
+        <v>1</v>
+      </c>
+      <c r="G22" t="s">
+        <v>74</v>
+      </c>
+      <c r="H22" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>66</v>
+      </c>
+      <c r="C23" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" t="s">
+        <v>12</v>
+      </c>
+      <c r="F23" t="b">
+        <v>1</v>
+      </c>
+      <c r="G23" t="s">
+        <v>74</v>
+      </c>
+      <c r="H23" t="s">
+        <v>86</v>
+      </c>
+      <c r="I23" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>67</v>
+      </c>
+      <c r="C24" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" t="s">
+        <v>12</v>
+      </c>
+      <c r="F24" t="b">
+        <v>0</v>
+      </c>
+      <c r="H24" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>69</v>
+      </c>
+      <c r="C25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" t="s">
+        <v>12</v>
+      </c>
+      <c r="F25" t="b">
+        <v>0</v>
+      </c>
+      <c r="G25" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>71</v>
+      </c>
+      <c r="C26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" t="s">
+        <v>12</v>
+      </c>
+      <c r="F26" t="b">
+        <v>0</v>
+      </c>
+      <c r="H26" t="s">
+        <v>89</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>